--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TopNav" sheetId="1" r:id="rId1"/>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>L6Y 0Z1</t>
+  </si>
+  <si>
+    <t>Order ID</t>
   </si>
 </sst>
 </file>
@@ -503,8 +506,8 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:B8"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -562,7 +565,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0">
         <v>1216464018</v>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Samsung_T5/bay/TestData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B98AE8-60B8-074E-BC3A-5F6605370C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="18200" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopNav" sheetId="1" r:id="rId1"/>
-    <sheet name="TestInputs" sheetId="2" r:id="rId5"/>
+    <sheet name="TestInputs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>WOMEN</t>
   </si>
@@ -47,9 +53,6 @@
     <t>ZELLERS</t>
   </si>
   <si>
-    <t xml:space="preserve">Search String </t>
-  </si>
-  <si>
     <t>towel</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
     <t>Cushions</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Postal Code</t>
   </si>
   <si>
@@ -93,25 +93,25 @@
   </si>
   <si>
     <t>Order ID</t>
+  </si>
+  <si>
+    <t>mango women</t>
+  </si>
+  <si>
+    <t>Search String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="JetBrains Mono"/>
-      <color rgb="FF6AAB73"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,11 +134,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,6 +145,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -196,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +229,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +281,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,62 +473,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -504,79 +538,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2">
         <v>600086722740</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>1216464018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="0">
-        <v>1216464018</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -94,12 +94,15 @@
   <si>
     <t>Order ID</t>
   </si>
+  <si>
+    <t>Search String</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +116,11 @@
       <color rgb="FF6AAB73"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,14 +138,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,7 +462,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,14 +526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="13.1406" customWidth="1"/>
+    <col min="2" max="2" width="11.4258" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -567,7 +590,7 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7" s="2">
         <v>1216464018</v>
       </c>
     </row>
@@ -575,7 +598,7 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
     </row>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Search String</t>
+  </si>
+  <si>
+    <t>mango women</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,6 +545,9 @@
       <c r="B1" t="s">
         <v>11</v>
       </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
